--- a/speedrun.xlsx
+++ b/speedrun.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegsidorenkov/Desktop/Python/PythonDataAnalysis/PythonProject/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEA69F5-B287-B84B-AC30-1CC81418E34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -475,7 +481,10 @@
     <t>empty</t>
   </si>
   <si>
-    <t>.hikLye; Furret2004</t>
+    <t>.hikLye</t>
+  </si>
+  <si>
+    <t>Mr_Semka</t>
   </si>
   <si>
     <t>sqdKaee</t>
@@ -484,18 +493,18 @@
     <t>valigo</t>
   </si>
   <si>
+    <t>Artur_Kirienko_121</t>
+  </si>
+  <si>
     <t>Rayu_</t>
   </si>
   <si>
-    <t>1DIM2; Wi11ka; ZOF</t>
+    <t>ZOF; Wi11ka; 1DIM2</t>
   </si>
   <si>
     <t>Facejif</t>
   </si>
   <si>
-    <t>Neidginn</t>
-  </si>
-  <si>
     <t>FelixLotus</t>
   </si>
   <si>
@@ -505,13 +514,13 @@
     <t>hivemind514</t>
   </si>
   <si>
-    <t>1DIM2; ZOF; Sheepbhop</t>
+    <t>ZOF; 1DIM2; Sheepbhop</t>
   </si>
   <si>
     <t>Max_Overpower</t>
   </si>
   <si>
-    <t>Muret; YaLTeR</t>
+    <t>Muret; nihatu99; YaLTeR</t>
   </si>
   <si>
     <t>Abagur900</t>
@@ -521,9 +530,6 @@
   </si>
   <si>
     <t>NormDanchik</t>
-  </si>
-  <si>
-    <t>lilkitty</t>
   </si>
   <si>
     <t>Wonderis_; Hohoshkin_123</t>
@@ -532,8 +538,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +602,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -642,7 +656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,9 +688,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,6 +740,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,19 +933,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -903,7 +957,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -911,7 +965,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -919,7 +973,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,7 +981,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,7 +989,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -943,7 +997,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,7 +1005,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,7 +1013,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,7 +1021,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -975,7 +1029,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,7 +1037,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -991,7 +1045,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -999,15 +1053,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1069,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1077,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +1085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1039,15 +1093,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1109,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1063,7 +1117,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1071,23 +1125,23 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1149,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1103,7 +1157,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1111,7 +1165,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1119,15 +1173,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1189,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1197,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1151,7 +1205,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1159,7 +1213,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1167,7 +1221,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1175,7 +1229,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1183,7 +1237,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1191,7 +1245,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1199,7 +1253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1207,7 +1261,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1215,7 +1269,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1277,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1231,7 +1285,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1239,7 +1293,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1247,7 +1301,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1255,15 +1309,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1271,7 +1325,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1279,7 +1333,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1287,7 +1341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1295,7 +1349,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1303,7 +1357,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1311,7 +1365,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1319,7 +1373,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -1327,7 +1381,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1335,7 +1389,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1343,7 +1397,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1351,15 +1405,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1367,7 +1421,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -1375,7 +1429,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -1383,7 +1437,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -1391,7 +1445,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -1399,15 +1453,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -1415,7 +1469,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1423,13 +1477,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -1437,7 +1491,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -1445,7 +1499,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -1453,7 +1507,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -1461,7 +1515,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -1469,15 +1523,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -1485,7 +1539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -1493,7 +1547,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -1501,7 +1555,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -1509,7 +1563,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -1517,15 +1571,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -1533,7 +1587,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -1541,23 +1595,23 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -1565,7 +1619,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -1573,7 +1627,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -1581,7 +1635,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -1589,7 +1643,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -1597,15 +1651,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -1613,7 +1667,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -1621,7 +1675,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -1629,7 +1683,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -1637,7 +1691,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -1645,23 +1699,23 @@
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -1669,7 +1723,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -1677,15 +1731,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -1693,7 +1747,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -1701,7 +1755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -1709,7 +1763,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -1717,7 +1771,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -1725,7 +1779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -1733,15 +1787,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -1749,7 +1803,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -1757,7 +1811,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -1765,7 +1819,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -1773,7 +1827,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -1781,7 +1835,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -1789,7 +1843,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -1797,7 +1851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -1805,7 +1859,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -1813,7 +1867,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -1821,7 +1875,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -1829,7 +1883,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -1837,7 +1891,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -1845,7 +1899,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -1853,7 +1907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -1861,7 +1915,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -1869,7 +1923,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -1877,7 +1931,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -1885,7 +1939,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -1893,7 +1947,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -1901,7 +1955,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -1909,7 +1963,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -1917,7 +1971,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -1925,7 +1979,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -1933,7 +1987,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -1941,7 +1995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -1949,7 +2003,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -1957,7 +2011,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -1965,7 +2019,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -1973,15 +2027,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -1989,7 +2043,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -1997,7 +2051,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -2005,7 +2059,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -2013,7 +2067,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -2021,7 +2075,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -2029,7 +2083,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -2037,7 +2091,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -2045,7 +2099,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -2053,7 +2107,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -2061,7 +2115,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -2069,7 +2123,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -2077,7 +2131,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -2085,7 +2139,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -2093,7 +2147,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -2101,7 +2155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
